--- a/src/main/java/com/qa/testdata/redbus_datasheet.xlsx
+++ b/src/main/java/com/qa/testdata/redbus_datasheet.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15150" windowHeight="3345" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TripDetails" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="TicketDetails" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Source</t>
   </si>
@@ -27,6 +27,12 @@
     <t>Date</t>
   </si>
   <si>
+    <t>Bangalore</t>
+  </si>
+  <si>
+    <t>31-May 2019</t>
+  </si>
+  <si>
     <t>Passenger1_Name</t>
   </si>
   <si>
@@ -51,34 +57,34 @@
     <t>Passenger_PhoneNo</t>
   </si>
   <si>
+    <t>Chirag P</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Paresh P</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>chirag@gmail.com</t>
+  </si>
+  <si>
+    <t>9175837086</t>
+  </si>
+  <si>
     <t>Mumbai</t>
   </si>
   <si>
-    <t>Bangalore</t>
-  </si>
-  <si>
-    <t>31-May 2019</t>
-  </si>
-  <si>
-    <t>Chirag P</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>Raj P</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>chirag.pritamnani@gmail.com</t>
-  </si>
-  <si>
-    <t>9175837086</t>
+    <t>Seabird Tourists</t>
+  </si>
+  <si>
+    <t>Passenger_Travel</t>
   </si>
 </sst>
 </file>
@@ -447,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -458,17 +464,9 @@
     <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -478,82 +476,103 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>21</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1"/>
+    <hyperlink ref="H2" r:id="rId1"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/src/main/java/com/qa/testdata/redbus_datasheet.xlsx
+++ b/src/main/java/com/qa/testdata/redbus_datasheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Source</t>
   </si>
@@ -79,12 +79,6 @@
   </si>
   <si>
     <t>Mumbai</t>
-  </si>
-  <si>
-    <t>Seabird Tourists</t>
-  </si>
-  <si>
-    <t>Passenger_Travel</t>
   </si>
 </sst>
 </file>
@@ -495,83 +489,77 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1"/>
+    <hyperlink ref="G2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/java/com/qa/testdata/redbus_datasheet.xlsx
+++ b/src/main/java/com/qa/testdata/redbus_datasheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Source</t>
   </si>
@@ -30,9 +30,6 @@
     <t>Bangalore</t>
   </si>
   <si>
-    <t>31-May 2019</t>
-  </si>
-  <si>
     <t>Passenger1_Name</t>
   </si>
   <si>
@@ -79,6 +76,15 @@
   </si>
   <si>
     <t>Mumbai</t>
+  </si>
+  <si>
+    <t>11-Jun 2019</t>
+  </si>
+  <si>
+    <t>Busname</t>
+  </si>
+  <si>
+    <t>Seabird Tourists</t>
   </si>
 </sst>
 </file>
@@ -450,7 +456,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -473,13 +479,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -489,77 +495,86 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="H2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
